--- a/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
+++ b/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071E25A8-A5DD-4694-ACD8-529744020288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D81849-242C-4ECC-8E0D-33A3DED5B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$25:$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>S. #</t>
   </si>
@@ -69,10 +69,13 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Installed units at 2nd Floor removed and re-install at new location as per instruction with copper pipe drain pipe installation, control wiring conduit etc complete in all respect.</t>
-  </si>
-  <si>
     <t>07 Mar 2024</t>
+  </si>
+  <si>
+    <t>Installed units at 2nd Floor removed and re-install at new location as per instruction with copper pipe.</t>
+  </si>
+  <si>
+    <t>Supply and installation of drain pipe &amp; control wire.</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -290,32 +293,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -377,12 +360,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,70 +369,49 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,13 +593,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>82552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>306770</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -737,13 +693,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142064</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>15065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>519755</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1073,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O40"/>
+  <dimension ref="A4:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1108,18 +1064,18 @@
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1137,15 +1093,15 @@
       <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1168,13 +1124,13 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:7" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -1184,20 +1140,20 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -1214,89 +1170,96 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
         <v>1</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="42">
         <v>13</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="43">
         <v>675000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51">
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
         <v>2</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="53"/>
-    </row>
-    <row r="28" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
         <v>3</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="40">
         <v>9</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="44">
         <v>135000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+    <row r="29" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
         <v>4</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46">
-        <f>SUM(E26:E28)</f>
+      <c r="B29" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="40">
+        <v>1</v>
+      </c>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="30">
+        <f>SUM(E26:E29)</f>
         <v>810000</v>
       </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1328,56 +1291,64 @@
       <c r="E34" s="9"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="13"/>
-      <c r="J35" s="2"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E36" s="9"/>
+      <c r="B36" s="31"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E37" s="16"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E37" s="9"/>
       <c r="J37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="E38" s="16"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
       <c r="J38" s="2"/>
-      <c r="L38" s="13"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J39" s="2"/>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L40" s="13"/>
     </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L41" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="7" man="1"/>
+    <brk id="39" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
+++ b/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D81849-242C-4ECC-8E0D-33A3DED5B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DFB83-35EC-4C55-89F8-45C152908A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,15 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$25:$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$29:$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>S. #</t>
   </si>
@@ -60,22 +60,25 @@
     <t>Removal and Installation of Floor Standing Units - Meezan Bank Head Office</t>
   </si>
   <si>
-    <t>For PIONEER ENGINEERING SERVICES</t>
-  </si>
-  <si>
     <t>Removal / dismantle of installed floor standing split units from various floors from building No 2.</t>
   </si>
   <si>
     <t>Job</t>
   </si>
   <si>
-    <t>07 Mar 2024</t>
-  </si>
-  <si>
-    <t>Installed units at 2nd Floor removed and re-install at new location as per instruction with copper pipe.</t>
-  </si>
-  <si>
-    <t>Supply and installation of drain pipe &amp; control wire.</t>
+    <t>21 Mar 2024</t>
+  </si>
+  <si>
+    <t>For PIONEER SERVICES</t>
+  </si>
+  <si>
+    <t>Installed units at 2nd Floor removed and re-install at new location as per instruction with copper pipe. Including supply and installation of drain pipe &amp; control wire.</t>
+  </si>
+  <si>
+    <t>M/s Meezan Bank Head Office</t>
+  </si>
+  <si>
+    <t>Attn: Mr. Shahbaz Shahzad</t>
   </si>
 </sst>
 </file>
@@ -190,16 +193,15 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="15"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,9 +356,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -372,7 +371,28 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -381,9 +401,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -393,26 +410,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -438,13 +440,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>135514</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>358774</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -541,13 +543,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>558802</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>446427</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -593,13 +595,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>82552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>306770</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -641,16 +643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1421181</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>71806</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>412374</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>269499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -679,7 +681,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1706931" y="0"/>
+          <a:off x="8263306" y="222250"/>
           <a:ext cx="2340818" cy="1031875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -691,16 +693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142064</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15065</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>642126</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>519755</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>337192</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,12 +731,167 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142064" y="7897003"/>
+          <a:off x="7238189" y="6341253"/>
           <a:ext cx="663441" cy="619936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293687</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358774</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8F1F85-EA75-4C7B-BD70-3EFE7716EFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10056812" y="2450089"/>
+          <a:ext cx="4256087" cy="416936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558802</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>446427</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930FC546-B9E1-4496-AD63-2C794538BEE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9350377" y="2314576"/>
+          <a:ext cx="859175" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1029,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O41"/>
+  <dimension ref="A4:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1060,230 +1217,202 @@
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="28" t="s">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="E14" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:7" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="1:5" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
+    <row r="30" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30">
         <v>1</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B30" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="34">
+        <v>13</v>
+      </c>
+      <c r="E30" s="35">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30">
+        <v>2</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30">
+        <v>3</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="42">
-        <v>13</v>
-      </c>
-      <c r="E26" s="43">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
-        <v>2</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-    </row>
-    <row r="28" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
-        <v>3</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="40">
+      <c r="D32" s="30">
         <v>9</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E32" s="32">
         <v>135000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40">
+    <row r="33" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="40">
-        <v>1</v>
-      </c>
-      <c r="E29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="30">
-        <f>SUM(E26:E29)</f>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="29">
+        <f>SUM(E30:E32)</f>
         <v>810000</v>
       </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1299,56 +1428,80 @@
       <c r="E35" s="9"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="13"/>
-      <c r="J36" s="2"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="9"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E38" s="16"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="13"/>
-      <c r="J38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="13"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L41" s="13"/>
+      <c r="E40" s="9"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="E41" s="16"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="13"/>
+      <c r="J41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J42" s="2"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="7" man="1"/>
+    <brk id="42" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
+++ b/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DFB83-35EC-4C55-89F8-45C152908A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C5030B-8472-4FA5-A4CA-DF9095507C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,15 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$29:$29</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>S. #</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Nos</t>
   </si>
   <si>
-    <t>Quotation</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Quotation #</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Job</t>
   </si>
   <si>
-    <t>21 Mar 2024</t>
-  </si>
-  <si>
     <t>For PIONEER SERVICES</t>
   </si>
   <si>
@@ -79,6 +70,27 @@
   </si>
   <si>
     <t>Attn: Mr. Shahbaz Shahzad</t>
+  </si>
+  <si>
+    <t>Invoice #</t>
+  </si>
+  <si>
+    <t>26 Mar 2025</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>SST 15%</t>
+  </si>
+  <si>
+    <t>Grand Total Amount Rs</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Total Amount after discount Rs</t>
   </si>
 </sst>
 </file>
@@ -215,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,29 +280,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -300,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -377,44 +373,50 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,15 +596,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>82552</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>306770</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>449645</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -631,7 +633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8442325" y="6726240"/>
+          <a:off x="8124825" y="7821614"/>
           <a:ext cx="643320" cy="520698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,16 +695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>642126</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419876</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>337192</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>64311</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495942</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>159561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -731,7 +733,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7238189" y="6341253"/>
+          <a:off x="8151001" y="7850188"/>
           <a:ext cx="663441" cy="619936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -743,16 +745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>135514</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>358774</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -769,8 +771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10056812" y="2450089"/>
-          <a:ext cx="4256087" cy="416936"/>
+          <a:off x="8858249" y="1913514"/>
+          <a:ext cx="4144962" cy="586798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -846,16 +848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>558802</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>446427</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525801</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -879,8 +881,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9350377" y="2314576"/>
-          <a:ext cx="859175" cy="552449"/>
+          <a:off x="7988301" y="1754187"/>
+          <a:ext cx="856000" cy="706438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,13 +898,102 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>267282</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>208901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE52418-DEB6-44BB-8DD0-4A1E64C01ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9556750" y="3984625"/>
+          <a:ext cx="4172532" cy="6725589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523064</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="663441" cy="619936"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2543742-19A6-45E7-AA9E-6CC9A735DDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8254189" y="8397875"/>
+          <a:ext cx="663441" cy="619936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -940,9 +1031,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,9 +1066,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,9 +1118,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1186,18 +1311,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O44"/>
+  <dimension ref="A4:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1221,33 +1346,33 @@
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="36"/>
+      <c r="A13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15"/>
       <c r="C15" s="22"/>
       <c r="D15" s="27" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1261,15 +1386,15 @@
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1292,13 +1417,13 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -1308,20 +1433,20 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
@@ -1351,100 +1476,119 @@
         <v>3</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>1</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="39">
         <v>13</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="34">
-        <v>13</v>
-      </c>
-      <c r="E30" s="35">
+      <c r="E30" s="40">
         <v>675000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>2</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30">
+        <v>8</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="42">
         <v>3</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30">
+      <c r="C32" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="42">
         <v>9</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="44">
         <v>135000</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="29">
         <f>SUM(E30:E32)</f>
         <v>810000</v>
       </c>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="29">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="29">
+        <f>E33-E34</f>
+        <v>800000</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="45">
+        <f>E35*15%</f>
+        <v>120000</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="46">
+        <f>E36+E35</f>
+        <v>920000</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1452,42 +1596,58 @@
       <c r="E38" s="9"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="13"/>
-      <c r="J39" s="2"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="9"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E41" s="16"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="34"/>
       <c r="F41" s="15"/>
       <c r="G41" s="13"/>
       <c r="J41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E42" s="9"/>
       <c r="J42" s="2"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L43" s="13"/>
+    </row>
+    <row r="43" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="E43" s="16"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="13"/>
+      <c r="J43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J44" s="2"/>
       <c r="L44" s="13"/>
     </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L46" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A25:E26"/>
@@ -1496,12 +1656,16 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="7" man="1"/>
+    <brk id="44" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
+++ b/Running projects/Meezan Bank Head Office/001 Quotation for Flor standing unit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C5030B-8472-4FA5-A4CA-DF9095507C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E85AB0E-A027-406E-80EF-DD554A90D4C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,6 +376,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -391,6 +406,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,24 +417,6 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,16 +595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>169864</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>558801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>449645</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425833</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -633,7 +633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124825" y="7821614"/>
+          <a:off x="7513638" y="7091364"/>
           <a:ext cx="643320" cy="520698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -745,16 +745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>539749</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>64076</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>128586</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -771,8 +771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8858249" y="1913514"/>
-          <a:ext cx="4144962" cy="586798"/>
+          <a:off x="7199311" y="532389"/>
+          <a:ext cx="4262440" cy="586798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,16 +848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>525801</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -881,7 +881,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7988301" y="1754187"/>
+          <a:off x="6329363" y="373062"/>
           <a:ext cx="856000" cy="706438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1346,10 +1346,10 @@
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="38"/>
     </row>
     <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
@@ -1386,15 +1386,15 @@
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1417,13 +1417,13 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -1433,20 +1433,20 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
@@ -1486,13 +1486,13 @@
       <c r="B30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="45">
         <v>13</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="46">
         <v>675000</v>
       </c>
     </row>
@@ -1503,34 +1503,34 @@
       <c r="B31" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42">
+      <c r="A32" s="33">
         <v>3</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="33">
         <v>9</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="35">
         <v>135000</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29">
         <f>SUM(E30:E32)</f>
         <v>810000</v>
@@ -1538,53 +1538,53 @@
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29">
-        <v>10000</v>
+        <v>114348</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="29">
         <f>E33-E34</f>
-        <v>800000</v>
+        <v>695652</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="45">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="36">
         <f>E35*15%</f>
-        <v>120000</v>
+        <v>104347.8</v>
       </c>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="46">
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="37">
         <f>E36+E35</f>
-        <v>920000</v>
+        <v>799999.8</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -1613,10 +1613,10 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="39"/>
       <c r="F41" s="15"/>
       <c r="G41" s="13"/>
       <c r="J41" s="2"/>
@@ -1625,6 +1625,9 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E42" s="9"/>
+      <c r="G42" s="1">
+        <v>800000</v>
+      </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1635,6 +1638,10 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <f>G42/115%</f>
+        <v>695652.17391304357</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="L44" s="13"/>
     </row>
